--- a/Учет цистерн/Forms/ReportTemplates/СНО Реализ.xlsx
+++ b/Учет цистерн/Forms/ReportTemplates/СНО Реализ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CisAccount\Учет цистерн\Forms\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956F998C-665E-4C4D-B6EE-7A6C6C004DC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC27A2F5-7D83-4348-9102-84609F343E16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>ТОО Казыкурт-Юг - реализация СНО за 2019г.</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Стоимость без НДС</t>
+  </si>
+  <si>
+    <t>Дата</t>
   </si>
 </sst>
 </file>
@@ -77,6 +80,7 @@
       <charset val="204"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -92,12 +96,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -106,47 +110,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="1" tint="0.499984740745262"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color theme="1" tint="0.499984740745262"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="double">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="medium">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="double">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="medium">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="double">
-        <color theme="1" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -155,21 +129,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -456,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:F6"/>
+  <dimension ref="A3:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,47 +438,53 @@
     <col min="4" max="4" width="23.28515625" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Учет цистерн/Forms/ReportTemplates/СНО Реализ.xlsx
+++ b/Учет цистерн/Forms/ReportTemplates/СНО Реализ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CisAccount\Учет цистерн\Forms\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC27A2F5-7D83-4348-9102-84609F343E16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB0DBDD-7EB6-41FB-BAC7-375D6C955369}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2655" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="СНО Реализация" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ТОО Казыкурт-Юг - реализация СНО за 2019г.</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Дата</t>
+  </si>
+  <si>
+    <t>Стоимость с НДС</t>
   </si>
 </sst>
 </file>
@@ -141,7 +144,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -427,18 +430,18 @@
   <dimension ref="A3:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1"/>
-    <col min="6" max="6" width="34" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -474,16 +477,13 @@
         <v>5</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:F3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Учет цистерн/Forms/ReportTemplates/СНО Реализ.xlsx
+++ b/Учет цистерн/Forms/ReportTemplates/СНО Реализ.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CisAccount\Учет цистерн\Forms\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB0DBDD-7EB6-41FB-BAC7-375D6C955369}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B8085F-8B5B-41DB-B6F9-72C5980C6FFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2655" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="СНО Реализация" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'СНО Реализация'!$A$5:$G$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -61,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,9 +87,20 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -132,18 +146,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -430,7 +450,7 @@
   <dimension ref="A3:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,13 +465,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -461,29 +481,30 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A5:G5" xr:uid="{B366C87D-BE5D-4762-B91A-6A4C2A6CE923}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
